--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,299 +417,276 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39765</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>40130</v>
       </c>
       <c r="B3">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>-1.120856461469888</v>
       </c>
       <c r="D3">
-        <v>2009</v>
-      </c>
-      <c r="E3">
-        <v>-0.9007664217083988</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40130</v>
+        <v>40494</v>
       </c>
       <c r="B4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C4">
-        <v>-1.120856461469888</v>
+        <v>0.2946875655135184</v>
       </c>
       <c r="D4">
-        <v>2010</v>
-      </c>
-      <c r="E4">
-        <v>0.3150445116460121</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40494</v>
+        <v>40862</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C5">
-        <v>0.2946875655135184</v>
+        <v>1.242549344471122</v>
       </c>
       <c r="D5">
-        <v>2011</v>
-      </c>
-      <c r="E5">
-        <v>1.394716403166685</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40862</v>
+        <v>41228</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.242549344471122</v>
+        <v>1.180122656701199</v>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.129570842833005</v>
+        <v>0.9288717675470126</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41228</v>
+        <v>41592</v>
       </c>
       <c r="B7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.180122656701199</v>
+        <v>1.381744454873757</v>
       </c>
       <c r="D7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.129049187797948</v>
+        <v>1.416624765035412</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41592</v>
+        <v>41957</v>
       </c>
       <c r="B8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.381744454873757</v>
+        <v>1.404039427736437</v>
       </c>
       <c r="D8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.633367354477078</v>
+        <v>1.075154359849861</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41957</v>
+        <v>42321</v>
       </c>
       <c r="B9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.404039427736437</v>
+        <v>1.593617458167307</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.649731081352623</v>
+        <v>1.214249019249602</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42321</v>
+        <v>42689</v>
       </c>
       <c r="B10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.593617458167307</v>
+        <v>1.885212754467758</v>
       </c>
       <c r="D10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.031337289618551</v>
+        <v>1.180565832117297</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>42689</v>
+        <v>43053</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.885212754467758</v>
+        <v>1.877372574190161</v>
       </c>
       <c r="D11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.81400703472574</v>
+        <v>1.638669199130427</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43053</v>
+        <v>43418</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.877372574190161</v>
+        <v>2.279995067217899</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.208009493344054</v>
+        <v>1.540918326052476</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.279995067217899</v>
+        <v>1.025257057800411</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.224414593777601</v>
+        <v>0.5773070399857971</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>43783</v>
+        <v>44159</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>1.025257057800411</v>
+        <v>-1.788000783651811</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.5563247180809361</v>
+        <v>-0.415982961498651</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.788000783651811</v>
+        <v>-1.098964423305859</v>
       </c>
       <c r="D15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E15">
-        <v>1.264747916836839</v>
+        <v>1.426719405738508</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44525</v>
+        <v>44890</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.098964423305859</v>
+        <v>1.916393754370604</v>
       </c>
       <c r="D16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.222432428535481</v>
+        <v>0.5205511175203181</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17">
-        <v>1.916393754370604</v>
+        <v>-0.7359525160776204</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.6800305325212697</v>
+        <v>0.3517304536567734</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45254</v>
+        <v>45618</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.7359525160776204</v>
+        <v>-0.187152549496028</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.287495466512433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>-0.187152549496028</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
-      </c>
-      <c r="E19">
-        <v>0.3967335531545713</v>
+        <v>0.4186921370205043</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,276 +417,299 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>1.144978573787081</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>1.381024225294869</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
-      </c>
-      <c r="C3">
-        <v>-1.120856461469888</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-0.8792832172735965</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
-      </c>
-      <c r="C4">
-        <v>0.2946875655135184</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>0.9337833426867448</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.242549344471122</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
+      <c r="E5">
+        <v>2.776721259569048</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>2.791140000794279</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>1.180122656701199</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>0.9288717675470126</v>
+        <v>1.397663935193227</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>0.4451370000809973</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>1.381744454873757</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>1.416624765035412</v>
+        <v>0.1571217018783377</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.2545814083968478</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>1.404039427736437</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>1.075154359849861</v>
+        <v>1.564494423159446</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>1.297015177357297</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>1.593617458167307</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>1.214249019249602</v>
+        <v>0.4654670911270031</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>1.365576377841027</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>1.885212754467758</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>1.180565832117297</v>
+        <v>1.13561893405616</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>2.204449574611278</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>1.877372574190161</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>1.638669199130427</v>
+        <v>1.120909053655028</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>2.18621550610123</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>2.279995067217899</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>1.540918326052476</v>
+        <v>2.012342079251583</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>1.911050033324102</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>1.025257057800411</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>0.5773070399857971</v>
+        <v>1.897633937626764</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>1.457852003181337</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-1.788000783651811</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-0.415982961498651</v>
+        <v>0.5018989042238298</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-3.258619210312885</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>-1.098964423305859</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>1.426719405738508</v>
+        <v>-1.154010671959604</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>0.4255262881966981</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>1.916393754370604</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>0.5205511175203181</v>
+        <v>2.711235034366544</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>3.293290997728171</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>-0.7359525160776204</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>0.3517304536567734</v>
+        <v>0.8446287801135322</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>-0.2814561130375925</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>0.2005659760944134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>-0.187152549496028</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>-0.6470065423293869</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.4186921370205043</v>
+      <c r="E19">
+        <v>1.323978403813442</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_winter.xlsx
@@ -641,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-1.154010671959604</v>
+        <v>-1.055440300316768</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,7 +658,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>2.711235034366544</v>
+        <v>2.531417074021203</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>0.8446287801135322</v>
+        <v>1.719850910752752</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.2005659760944134</v>
+        <v>0.5150746350407909</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>1.323978403813442</v>
+        <v>1.208720904184801</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_winter.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>1.144978573787081</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -436,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>1.381024225294869</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -451,7 +445,7 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>-0.8792832172735965</v>
+        <v>-0.8792832172735632</v>
       </c>
       <c r="D4">
         <v>2010</v>
@@ -465,13 +459,13 @@
         <v>2010</v>
       </c>
       <c r="C5">
-        <v>0.9337833426867448</v>
+        <v>0.9337833426867226</v>
       </c>
       <c r="D5">
         <v>2011</v>
       </c>
       <c r="E5">
-        <v>2.776721259569048</v>
+        <v>2.776721259569026</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,13 +476,13 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>2.791140000794279</v>
+        <v>2.791140000794257</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>1.397663935193227</v>
+        <v>1.397663935193183</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,7 +493,7 @@
         <v>2012</v>
       </c>
       <c r="C7">
-        <v>0.4451370000809973</v>
+        <v>0.4451370000809529</v>
       </c>
       <c r="D7">
         <v>2013</v>
@@ -522,7 +516,7 @@
         <v>2014</v>
       </c>
       <c r="E8">
-        <v>1.564494423159446</v>
+        <v>1.564494423159402</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -567,13 +561,13 @@
         <v>2016</v>
       </c>
       <c r="C11">
-        <v>2.204449574611278</v>
+        <v>2.2044495746113</v>
       </c>
       <c r="D11">
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>1.120909053655028</v>
+        <v>1.120909053655073</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -607,7 +601,7 @@
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>1.897633937626764</v>
+        <v>1.897633937626786</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,7 +618,7 @@
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>0.5018989042238298</v>
+        <v>0.5018989042238076</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -635,13 +629,13 @@
         <v>2020</v>
       </c>
       <c r="C15">
-        <v>-3.258619210312885</v>
+        <v>-3.258619210312896</v>
       </c>
       <c r="D15">
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-1.055440300316768</v>
+        <v>-1.055440300316746</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -652,13 +646,13 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>0.4255262881966981</v>
+        <v>0.4255262881966759</v>
       </c>
       <c r="D16">
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>2.531417074021203</v>
+        <v>2.531417074021181</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,7 +669,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>1.719850910752752</v>
+        <v>1.719850910752729</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -686,7 +680,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>-0.2814561130375925</v>
+        <v>-0.2814561130375703</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -703,13 +697,13 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>-0.6470065423293869</v>
+        <v>-0.6470065423293758</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>1.208720904184801</v>
+        <v>1.208720904184779</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,6 +706,23 @@
         <v>1.208720904184779</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>2.043309689777173</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>1.002299702378884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
